--- a/symbols/!Capacitor-0805.xlsx
+++ b/symbols/!Capacitor-0805.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dbwal\VSCode\KiCAD\electronics-library\symbols\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56ABBEB3-AFAE-4256-8227-6FE7C7BBE238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA0589F4-12EC-4DCE-9F9B-46FCDC700BEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32505" yWindow="1545" windowWidth="21600" windowHeight="15810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="52365" yWindow="1320" windowWidth="22740" windowHeight="17595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="~Template" sheetId="1" r:id="rId1"/>
@@ -53,9 +53,6 @@
     <t>Voltage</t>
   </si>
   <si>
-    <t>JLCPCB</t>
-  </si>
-  <si>
     <t>ki_keywords</t>
   </si>
   <si>
@@ -495,6 +492,9 @@
   </si>
   <si>
     <t>10uF 50V X5R ±10%</t>
+  </si>
+  <si>
+    <t>JLCPCB PN</t>
   </si>
 </sst>
 </file>
@@ -854,7 +854,7 @@
   <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A34"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" t="s">
         <v>6</v>
-      </c>
-      <c r="C1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D1" t="s">
-        <v>7</v>
       </c>
       <c r="F1" t="s">
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H1" t="s">
         <v>1</v>
@@ -901,31 +901,31 @@
         <v>10nF_X7R_50V</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K2" t="s">
         <v>81</v>
-      </c>
-      <c r="D2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" t="s">
-        <v>84</v>
-      </c>
-      <c r="K2" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -934,31 +934,31 @@
         <v>150pF_X7R_50V</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
+        <v>82</v>
+      </c>
+      <c r="H3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K3" t="s">
         <v>85</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" t="s">
-        <v>83</v>
-      </c>
-      <c r="H3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J3" t="s">
-        <v>87</v>
-      </c>
-      <c r="K3" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -967,31 +967,31 @@
         <v>1.5nF_X7R_50V</v>
       </c>
       <c r="B4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" t="s">
+        <v>82</v>
+      </c>
+      <c r="H4" t="s">
+        <v>87</v>
+      </c>
+      <c r="I4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" t="s">
+        <v>90</v>
+      </c>
+      <c r="K4" t="s">
         <v>89</v>
-      </c>
-      <c r="C4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D4" t="s">
-        <v>85</v>
-      </c>
-      <c r="F4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" t="s">
-        <v>83</v>
-      </c>
-      <c r="H4" t="s">
-        <v>88</v>
-      </c>
-      <c r="I4" t="s">
-        <v>9</v>
-      </c>
-      <c r="J4" t="s">
-        <v>91</v>
-      </c>
-      <c r="K4" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -1000,31 +1000,31 @@
         <v>22nF_X7R_50V</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -1033,31 +1033,31 @@
         <v>33nF_X7R_50V</v>
       </c>
       <c r="B6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -1066,31 +1066,31 @@
         <v>330nF_X7R_50V</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -1099,31 +1099,31 @@
         <v>470pF_X7R_50V</v>
       </c>
       <c r="B8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -1132,31 +1132,31 @@
         <v>4.7nF_X7R_50V</v>
       </c>
       <c r="B9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -1165,31 +1165,31 @@
         <v>6.8nF_X7R_50V</v>
       </c>
       <c r="B10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -1198,31 +1198,31 @@
         <v>4.7uF_X5R_25V</v>
       </c>
       <c r="B11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -1231,31 +1231,31 @@
         <v>100pF_C0G_50V</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G12" t="s">
+        <v>106</v>
+      </c>
+      <c r="H12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" t="s">
+        <v>14</v>
+      </c>
+      <c r="J12" t="s">
         <v>107</v>
       </c>
-      <c r="H12" t="s">
-        <v>14</v>
-      </c>
-      <c r="I12" t="s">
-        <v>15</v>
-      </c>
-      <c r="J12" t="s">
-        <v>108</v>
-      </c>
       <c r="K12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -1264,31 +1264,31 @@
         <v>12pF_C0G_50V</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -1297,31 +1297,31 @@
         <v>18pF_C0G_50V</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -1330,31 +1330,31 @@
         <v>20pF_C0G_50V</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -1363,31 +1363,31 @@
         <v>22pF_C0G_50V</v>
       </c>
       <c r="B16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -1396,31 +1396,31 @@
         <v>220nF_X7R_50V</v>
       </c>
       <c r="B17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -1429,31 +1429,31 @@
         <v>470nF_X7R_50V</v>
       </c>
       <c r="B18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -1462,31 +1462,31 @@
         <v>47pF_C0G_50V</v>
       </c>
       <c r="B19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K19" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -1495,31 +1495,31 @@
         <v>10uF_X5R_25V</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H20" t="s">
+        <v>18</v>
+      </c>
+      <c r="I20" t="s">
         <v>19</v>
       </c>
-      <c r="I20" t="s">
-        <v>20</v>
-      </c>
       <c r="J20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -1528,31 +1528,31 @@
         <v>47uF_X5R_6.3V</v>
       </c>
       <c r="B21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G21" t="s">
+        <v>125</v>
+      </c>
+      <c r="H21" t="s">
+        <v>72</v>
+      </c>
+      <c r="I21" t="s">
+        <v>19</v>
+      </c>
+      <c r="J21" t="s">
         <v>126</v>
       </c>
-      <c r="H21" t="s">
-        <v>73</v>
-      </c>
-      <c r="I21" t="s">
-        <v>20</v>
-      </c>
-      <c r="J21" t="s">
-        <v>127</v>
-      </c>
       <c r="K21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -1561,31 +1561,31 @@
         <v>100nF_X7R_100V</v>
       </c>
       <c r="B22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H22" t="s">
+        <v>7</v>
+      </c>
+      <c r="I22" t="s">
         <v>8</v>
       </c>
-      <c r="I22" t="s">
-        <v>9</v>
-      </c>
       <c r="J22" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -1594,31 +1594,31 @@
         <v>2.2nF_C0G_50V</v>
       </c>
       <c r="B23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J23" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K23" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -1627,31 +1627,31 @@
         <v>1uF_X7R_50V</v>
       </c>
       <c r="B24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J24" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K24" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -1660,31 +1660,31 @@
         <v>22uF_X5R_25V</v>
       </c>
       <c r="B25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D25" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G25" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J25" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K25" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -1693,31 +1693,31 @@
         <v>1nF_X7R_50V</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D26" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J26" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -1726,31 +1726,31 @@
         <v>100nF_X7R_50V</v>
       </c>
       <c r="B27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C27" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D27" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H27" t="s">
+        <v>7</v>
+      </c>
+      <c r="I27" t="s">
         <v>8</v>
       </c>
-      <c r="I27" t="s">
-        <v>9</v>
-      </c>
       <c r="J27" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K27" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -1759,31 +1759,31 @@
         <v>47nF_X7R_50V</v>
       </c>
       <c r="B28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C28" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D28" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F28" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G28" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H28" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I28" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J28" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K28" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -1792,31 +1792,31 @@
         <v>15pF_NP0_50V</v>
       </c>
       <c r="B29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C29" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F29" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G29" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H29" t="s">
+        <v>27</v>
+      </c>
+      <c r="I29" t="s">
         <v>28</v>
       </c>
-      <c r="I29" t="s">
-        <v>29</v>
-      </c>
       <c r="J29" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K29" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -1825,31 +1825,31 @@
         <v>30pF_NP0_50V</v>
       </c>
       <c r="B30" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C30" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D30" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F30" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G30" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J30" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K30" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -1858,31 +1858,31 @@
         <v>33pF_NP0_50V</v>
       </c>
       <c r="B31" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C31" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F31" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G31" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H31" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I31" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J31" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K31" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -1891,31 +1891,31 @@
         <v>220pF_X7R_50V</v>
       </c>
       <c r="B32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C32" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D32" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F32" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G32" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I32" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J32" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K32" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -1924,31 +1924,31 @@
         <v>2.2uF_X5R_50V</v>
       </c>
       <c r="B33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C33" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D33" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F33" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G33" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H33" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I33" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K33" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -1957,31 +1957,31 @@
         <v>10uF_X5R_50V</v>
       </c>
       <c r="B34" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D34" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H34" t="s">
+        <v>18</v>
+      </c>
+      <c r="I34" t="s">
         <v>19</v>
       </c>
-      <c r="I34" t="s">
-        <v>20</v>
-      </c>
       <c r="J34" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K34" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
